--- a/python/two/nn SD t1=6 t2=5 δ=0.4.xlsx
+++ b/python/two/nn SD t1=6 t2=5 δ=0.4.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2.75e-12</t>
+          <t>6.02e-06</t>
         </is>
       </c>
     </row>
@@ -490,7 +490,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4.87e-11</t>
+          <t>9.85e-05</t>
         </is>
       </c>
     </row>
@@ -512,7 +512,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4.87e-11</t>
+          <t>9.86e-05</t>
         </is>
       </c>
     </row>
@@ -534,7 +534,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.44e-12</t>
+          <t>2.02e-05</t>
         </is>
       </c>
     </row>
@@ -546,17 +546,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>8.80e-01</t>
+          <t>1.00e+00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3.66e-14</t>
+          <t>3.59e-10</t>
         </is>
       </c>
     </row>
